--- a/algebras.xlsx
+++ b/algebras.xlsx
@@ -555,6 +555,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -655,10 +656,10 @@
   <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="146:146"/>
+      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="125:125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.74"/>
@@ -4761,7 +4762,7 @@
         <v>136</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>11</v>
@@ -4770,10 +4771,10 @@
         <v>12</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>50838</v>
+        <v>7252</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>1179604</v>
+        <v>100506</v>
       </c>
       <c r="H125" s="3" t="n">
         <v>-1</v>

--- a/algebras.xlsx
+++ b/algebras.xlsx
@@ -655,11 +655,11 @@
   </sheetPr>
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="125:125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.74"/>
@@ -1099,7 +1099,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -1108,10 +1108,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3589418</v>
+        <v>8272</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3589418</v>
+        <v>8272</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
@@ -1141,10 +1141,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>729866</v>
+        <v>8806</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1156780</v>
+        <v>30274</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>-1</v>
@@ -1198,7 +1198,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>362880</v>
+        <v>40320</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>-1</v>

--- a/algebras.xlsx
+++ b/algebras.xlsx
@@ -653,13 +653,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:AMJ161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.74"/>
@@ -697,6 +697,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1099,7 +1101,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -1132,7 +1134,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
@@ -1198,7 +1200,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>

--- a/algebras.xlsx
+++ b/algebras.xlsx
@@ -620,19 +620,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,209 +655,210 @@
   </sheetPr>
   <dimension ref="A1:AMJ161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="4" style="1" width="11.61"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>12416</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>278528</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>974</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>61675</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>974</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>61675</v>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>745</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>47349</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>2391</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>547581</v>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -866,31 +867,31 @@
         <f aca="false">A6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>2391</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>560107</v>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -899,31 +900,31 @@
         <f aca="false">A7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>3839</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>355883</v>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -932,31 +933,31 @@
         <f aca="false">A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>854822</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>2910948</v>
       </c>
-      <c r="H9" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -965,31 +966,31 @@
         <f aca="false">A9+1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="H10" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -998,31 +999,31 @@
         <f aca="false">A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>277</v>
       </c>
-      <c r="H11" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1031,31 +1032,31 @@
         <f aca="false">A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="H12" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="H12" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1064,31 +1065,31 @@
         <f aca="false">A12+1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="n">
         <v>222</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>54802</v>
       </c>
-      <c r="H13" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1097,31 +1098,31 @@
         <f aca="false">A13+1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="C14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="n">
         <v>8272</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="3" t="n">
         <v>8272</v>
       </c>
-      <c r="H14" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1130,31 +1131,31 @@
         <f aca="false">A14+1</f>
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="C15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>8806</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <v>30274</v>
       </c>
-      <c r="H15" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="H15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1163,31 +1164,31 @@
         <f aca="false">A15+1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>122764</v>
       </c>
-      <c r="H16" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="H16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1196,31 +1197,31 @@
         <f aca="false">A16+1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="C17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <v>40320</v>
       </c>
-      <c r="H17" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1229,31 +1230,31 @@
         <f aca="false">A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="n">
         <v>729866</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <v>733640</v>
       </c>
-      <c r="H18" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="H18" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1262,31 +1263,31 @@
         <f aca="false">A18+1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="n">
         <v>192</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>4278</v>
       </c>
-      <c r="H19" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1295,31 +1296,31 @@
         <f aca="false">A19+1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="n">
         <v>643</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>94368</v>
       </c>
-      <c r="H20" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="H20" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1328,31 +1329,31 @@
         <f aca="false">A20+1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="n">
         <v>15515</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>1494466</v>
       </c>
-      <c r="H21" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="H21" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1361,31 +1362,31 @@
         <f aca="false">A21+1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="n">
         <v>4655</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="3" t="n">
         <v>18620</v>
       </c>
-      <c r="H22" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="H22" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1394,31 +1395,31 @@
         <f aca="false">A22+1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="n">
         <v>1427</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="3" t="n">
         <v>74622</v>
       </c>
-      <c r="H23" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1427,31 +1428,31 @@
         <f aca="false">A23+1</f>
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="n">
         <v>2146</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="3" t="n">
         <v>579488</v>
       </c>
-      <c r="H24" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="H24" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1460,31 +1461,31 @@
         <f aca="false">A24+1</f>
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="n">
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="n">
         <v>4726</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="3" t="n">
         <v>1241236</v>
       </c>
-      <c r="H25" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1493,31 +1494,31 @@
         <f aca="false">A25+1</f>
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="n">
         <v>4887</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="3" t="n">
         <v>76293</v>
       </c>
-      <c r="H26" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="H26" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1526,31 +1527,31 @@
         <f aca="false">A26+1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="n">
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="n">
         <v>37248</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="3" t="n">
         <v>2006774</v>
       </c>
-      <c r="H27" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="H27" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1559,31 +1560,31 @@
         <f aca="false">A27+1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="n">
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="n">
         <v>6272</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="3" t="n">
         <v>6272</v>
       </c>
-      <c r="H28" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="H28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1592,31 +1593,31 @@
         <f aca="false">A28+1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="n">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="n">
         <v>1001</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="3" t="n">
         <v>15977</v>
       </c>
-      <c r="H29" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1625,31 +1626,31 @@
         <f aca="false">A29+1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="H30" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="H30" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1658,31 +1659,31 @@
         <f aca="false">A30+1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="n">
         <v>13941</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="3" t="n">
         <v>390377</v>
       </c>
-      <c r="H31" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="H31" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1691,31 +1692,31 @@
         <f aca="false">A31+1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="n">
+      <c r="C32" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="n">
         <v>797</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="3" t="n">
         <v>322560</v>
       </c>
-      <c r="H32" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="H32" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1724,31 +1725,31 @@
         <f aca="false">A32+1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="3" t="n">
         <v>24543</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="3" t="n">
         <v>223808</v>
       </c>
-      <c r="H33" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="H33" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1757,31 +1758,31 @@
         <f aca="false">A33+1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="n">
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="n">
         <v>174062</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="3" t="n">
         <v>597912</v>
       </c>
-      <c r="H34" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="H34" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1790,31 +1791,31 @@
         <f aca="false">A34+1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2" t="n">
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="n">
         <v>324</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="3" t="n">
         <v>1944</v>
       </c>
-      <c r="H35" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="H35" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1823,31 +1824,31 @@
         <f aca="false">A35+1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="n">
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3" t="n">
         <v>2297</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="3" t="n">
         <v>760591</v>
       </c>
-      <c r="H36" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="H36" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1856,31 +1857,31 @@
         <f aca="false">A36+1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2" t="n">
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="3" t="n">
         <v>5492</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="3" t="n">
         <v>334666</v>
       </c>
-      <c r="H37" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="H37" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1889,31 +1890,31 @@
         <f aca="false">A37+1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="n">
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="H38" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="H38" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1922,31 +1923,31 @@
         <f aca="false">A38+1</f>
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="C39" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1955,31 +1956,31 @@
         <f aca="false">A39+1</f>
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="2" t="n">
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3" t="n">
         <v>224</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="3" t="n">
         <v>224</v>
       </c>
-      <c r="H40" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="H40" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1988,31 +1989,31 @@
         <f aca="false">A40+1</f>
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="2" t="n">
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H41" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="H41" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2021,31 +2022,31 @@
         <f aca="false">A41+1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="n">
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="n">
         <v>42222</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="3" t="n">
         <v>42222</v>
       </c>
-      <c r="H42" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="H42" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2054,31 +2055,28 @@
         <f aca="false">A42+1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="n">
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3" t="n">
         <v>23040</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="3" t="n">
         <v>46080</v>
       </c>
-      <c r="H43" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="H43" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2087,31 +2085,31 @@
         <f aca="false">A43+1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="n">
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="H44" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="H44" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2120,31 +2118,31 @@
         <f aca="false">A44+1</f>
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="n">
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3" t="n">
         <v>550</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="3" t="n">
         <v>202512</v>
       </c>
-      <c r="H45" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="H45" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2153,31 +2151,31 @@
         <f aca="false">A45+1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="n">
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="3" t="n">
         <v>95062</v>
       </c>
-      <c r="H46" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="3" t="s">
+      <c r="H46" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2186,31 +2184,31 @@
         <f aca="false">A46+1</f>
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="n">
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="3" t="n">
         <v>230984</v>
       </c>
-      <c r="H47" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="H47" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2219,31 +2217,31 @@
         <f aca="false">A47+1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2" t="n">
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="n">
         <v>24801</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="3" t="n">
         <v>196826</v>
       </c>
-      <c r="H48" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="H48" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2252,31 +2250,31 @@
         <f aca="false">A48+1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="n">
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H49" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="H49" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2285,31 +2283,31 @@
         <f aca="false">A49+1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="2" t="n">
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3" t="n">
         <v>2641</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="3" t="n">
         <v>607336</v>
       </c>
-      <c r="H50" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="H50" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2318,31 +2316,31 @@
         <f aca="false">A50+1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="2" t="n">
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="3" t="n">
         <v>122</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="3" t="n">
         <v>72470</v>
       </c>
-      <c r="H51" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="H51" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2351,31 +2349,31 @@
         <f aca="false">A51+1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="2" t="n">
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3" t="n">
         <v>394</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="3" t="n">
         <v>2352</v>
       </c>
-      <c r="H52" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="H52" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2384,31 +2382,31 @@
         <f aca="false">A52+1</f>
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2" t="n">
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="3" t="n">
         <v>14796</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="3" t="n">
         <v>32788</v>
       </c>
-      <c r="H53" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="H53" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2417,31 +2415,31 @@
         <f aca="false">A53+1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="n">
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="3" t="n">
         <v>4655</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="3" t="n">
         <v>18620</v>
       </c>
-      <c r="H54" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="3" t="s">
+      <c r="H54" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2450,31 +2448,31 @@
         <f aca="false">A54+1</f>
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="n">
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="3" t="n">
         <v>6738</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="3" t="n">
         <v>395792</v>
       </c>
-      <c r="H55" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="H55" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2483,31 +2481,31 @@
         <f aca="false">A55+1</f>
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2" t="n">
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="n">
         <v>1001</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="3" t="n">
         <v>15977</v>
       </c>
-      <c r="H56" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="H56" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2516,31 +2514,31 @@
         <f aca="false">A56+1</f>
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="n">
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="3" t="n">
         <v>835006</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="3" t="n">
         <v>1164106</v>
       </c>
-      <c r="H57" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="H57" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2549,31 +2547,31 @@
         <f aca="false">A57+1</f>
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="n">
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="3" t="n">
         <v>40320</v>
       </c>
-      <c r="H58" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="H58" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2582,31 +2580,31 @@
         <f aca="false">A58+1</f>
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="n">
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="3" t="n">
         <v>315</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="3" t="n">
         <v>69142</v>
       </c>
-      <c r="H59" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="H59" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2615,31 +2613,31 @@
         <f aca="false">A59+1</f>
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="3" t="n">
         <v>256</v>
       </c>
-      <c r="H60" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="3" t="s">
+      <c r="H60" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2648,31 +2646,31 @@
         <f aca="false">A60+1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="n">
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="G61" s="3" t="n">
         <v>2352</v>
       </c>
-      <c r="H61" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="H61" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2681,31 +2679,31 @@
         <f aca="false">A61+1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="n">
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="3" t="n">
         <v>44274</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="3" t="n">
         <v>132722</v>
       </c>
-      <c r="H62" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="H62" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2714,31 +2712,31 @@
         <f aca="false">A62+1</f>
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="n">
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="3" t="n">
         <v>10432</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="3" t="n">
         <v>16384</v>
       </c>
-      <c r="H63" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="3" t="s">
+      <c r="H63" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2747,31 +2745,31 @@
         <f aca="false">A63+1</f>
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="3" t="n">
         <v>1411</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="3" t="n">
         <v>10944</v>
       </c>
-      <c r="H64" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="H64" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2780,31 +2778,31 @@
         <f aca="false">A64+1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="3" t="n">
         <v>2493</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="3" t="n">
         <v>2514</v>
       </c>
-      <c r="H65" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="H65" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2813,31 +2811,31 @@
         <f aca="false">A65+1</f>
         <v>65</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="n">
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="3" t="n">
         <v>25872</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="3" t="n">
         <v>367234</v>
       </c>
-      <c r="H66" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="H66" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2846,31 +2844,31 @@
         <f aca="false">A66+1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="n">
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="3" t="n">
         <v>32234</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="3" t="n">
         <v>441630</v>
       </c>
-      <c r="H67" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="H67" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2879,31 +2877,31 @@
         <f aca="false">A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="n">
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H68" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="3" t="s">
+      <c r="H68" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2912,31 +2910,31 @@
         <f aca="false">A68+1</f>
         <v>68</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="n">
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="3" t="n">
         <v>3856</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="3" t="n">
         <v>179427</v>
       </c>
-      <c r="H69" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="3" t="s">
+      <c r="H69" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2945,31 +2943,31 @@
         <f aca="false">A69+1</f>
         <v>69</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="n">
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="3" t="n">
         <v>511</v>
       </c>
-      <c r="H70" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="3" t="s">
+      <c r="H70" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2978,31 +2976,31 @@
         <f aca="false">A70+1</f>
         <v>70</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="n">
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="G71" s="2" t="n">
+      <c r="G71" s="3" t="n">
         <v>46281</v>
       </c>
-      <c r="H71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J71" s="3" t="s">
+      <c r="H71" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3011,31 +3009,31 @@
         <f aca="false">A71+1</f>
         <v>71</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="n">
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="3" t="n">
         <v>536</v>
       </c>
-      <c r="G72" s="2" t="n">
+      <c r="G72" s="3" t="n">
         <v>102897</v>
       </c>
-      <c r="H72" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="H72" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3044,31 +3042,31 @@
         <f aca="false">A72+1</f>
         <v>72</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2" t="n">
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="3" t="n">
         <v>69332</v>
       </c>
-      <c r="G73" s="2" t="n">
+      <c r="G73" s="3" t="n">
         <v>415992</v>
       </c>
-      <c r="H73" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="H73" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3077,31 +3075,31 @@
         <f aca="false">A73+1</f>
         <v>73</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2" t="n">
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="3" t="n">
         <v>3654</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="3" t="n">
         <v>525330</v>
       </c>
-      <c r="H74" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J74" s="3" t="s">
+      <c r="H74" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3110,31 +3108,31 @@
         <f aca="false">A74+1</f>
         <v>74</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="n">
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="3" t="n">
         <v>2306</v>
       </c>
-      <c r="G75" s="2" t="n">
+      <c r="G75" s="3" t="n">
         <v>800756</v>
       </c>
-      <c r="H75" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="H75" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3143,31 +3141,31 @@
         <f aca="false">A75+1</f>
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="n">
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="3" t="n">
         <v>1218</v>
       </c>
-      <c r="G76" s="2" t="n">
+      <c r="G76" s="3" t="n">
         <v>79464</v>
       </c>
-      <c r="H76" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="3" t="s">
+      <c r="H76" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3176,31 +3174,31 @@
         <f aca="false">A76+1</f>
         <v>76</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="2" t="n">
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="3" t="n">
         <v>9374</v>
       </c>
-      <c r="G77" s="2" t="n">
+      <c r="G77" s="3" t="n">
         <v>734988</v>
       </c>
-      <c r="H77" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="3" t="s">
+      <c r="H77" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3209,31 +3207,31 @@
         <f aca="false">A77+1</f>
         <v>77</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="n">
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="3" t="n">
         <v>3852</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="3" t="n">
         <v>249962</v>
       </c>
-      <c r="H78" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" s="3" t="s">
+      <c r="H78" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3242,31 +3240,31 @@
         <f aca="false">A78+1</f>
         <v>78</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="n">
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="3" t="n">
         <v>132</v>
       </c>
-      <c r="G79" s="2" t="n">
+      <c r="G79" s="3" t="n">
         <v>71136</v>
       </c>
-      <c r="H79" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="H79" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3275,31 +3273,31 @@
         <f aca="false">A79+1</f>
         <v>79</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="2" t="n">
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="3" t="n">
         <v>4096</v>
       </c>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="3" t="n">
         <v>4096</v>
       </c>
-      <c r="H80" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="H80" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3308,31 +3306,31 @@
         <f aca="false">A80+1</f>
         <v>80</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="2" t="n">
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="3" t="n">
         <v>1047</v>
       </c>
-      <c r="G81" s="2" t="n">
+      <c r="G81" s="3" t="n">
         <v>126632</v>
       </c>
-      <c r="H81" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="H81" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3341,31 +3339,31 @@
         <f aca="false">A81+1</f>
         <v>81</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="2" t="n">
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="G82" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="H82" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="3" t="s">
+      <c r="H82" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3374,31 +3372,31 @@
         <f aca="false">A82+1</f>
         <v>82</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2" t="n">
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G83" s="2" t="n">
+      <c r="G83" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="H83" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="H83" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3407,31 +3405,31 @@
         <f aca="false">A83+1</f>
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="2" t="n">
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="3" t="n">
         <v>13371</v>
       </c>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="3" t="n">
         <v>221288</v>
       </c>
-      <c r="H84" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" s="3" t="s">
+      <c r="H84" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3440,31 +3438,31 @@
         <f aca="false">A84+1</f>
         <v>84</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="n">
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="3" t="n">
         <v>4753</v>
       </c>
-      <c r="G85" s="2" t="n">
+      <c r="G85" s="3" t="n">
         <v>74675</v>
       </c>
-      <c r="H85" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="H85" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3473,31 +3471,31 @@
         <f aca="false">A85+1</f>
         <v>85</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="n">
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="3" t="n">
         <v>217</v>
       </c>
-      <c r="G86" s="2" t="n">
+      <c r="G86" s="3" t="n">
         <v>5310</v>
       </c>
-      <c r="H86" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J86" s="3" t="s">
+      <c r="H86" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3506,31 +3504,31 @@
         <f aca="false">A86+1</f>
         <v>86</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="2" t="n">
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="3" t="n">
         <v>318</v>
       </c>
-      <c r="G87" s="2" t="n">
+      <c r="G87" s="3" t="n">
         <v>130023</v>
       </c>
-      <c r="H87" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="H87" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3539,31 +3537,31 @@
         <f aca="false">A87+1</f>
         <v>87</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2" t="n">
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="3" t="n">
         <v>298</v>
       </c>
-      <c r="G88" s="2" t="n">
+      <c r="G88" s="3" t="n">
         <v>22104</v>
       </c>
-      <c r="H88" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J88" s="3" t="s">
+      <c r="H88" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3572,31 +3570,31 @@
         <f aca="false">A88+1</f>
         <v>88</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="3" t="s">
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F89" s="2" t="n">
+      <c r="F89" s="3" t="n">
         <v>567</v>
       </c>
-      <c r="G89" s="2" t="n">
+      <c r="G89" s="3" t="n">
         <v>10902</v>
       </c>
-      <c r="H89" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" s="3" t="s">
+      <c r="H89" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3605,31 +3603,31 @@
         <f aca="false">A89+1</f>
         <v>89</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2" t="n">
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="3" t="n">
         <v>718</v>
       </c>
-      <c r="G90" s="2" t="n">
+      <c r="G90" s="3" t="n">
         <v>209527</v>
       </c>
-      <c r="H90" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="3" t="s">
+      <c r="H90" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3638,31 +3636,31 @@
         <f aca="false">A90+1</f>
         <v>90</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="2" t="n">
+      <c r="D91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="3" t="n">
         <v>2068</v>
       </c>
-      <c r="G91" s="2" t="n">
+      <c r="G91" s="3" t="n">
         <v>2068</v>
       </c>
-      <c r="H91" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3671,31 +3669,31 @@
         <f aca="false">A91+1</f>
         <v>91</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="2" t="n">
+      <c r="D92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="3" t="n">
         <v>1795</v>
       </c>
-      <c r="G92" s="2" t="n">
+      <c r="G92" s="3" t="n">
         <v>27526</v>
       </c>
-      <c r="H92" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J92" s="3" t="s">
+      <c r="H92" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3704,31 +3702,31 @@
         <f aca="false">A92+1</f>
         <v>92</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="2" t="n">
+      <c r="D93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="3" t="n">
         <v>1795</v>
       </c>
-      <c r="G93" s="2" t="n">
+      <c r="G93" s="3" t="n">
         <v>27526</v>
       </c>
-      <c r="H93" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J93" s="3" t="s">
+      <c r="H93" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3737,31 +3735,31 @@
         <f aca="false">A93+1</f>
         <v>93</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="2" t="n">
+      <c r="D94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="G94" s="2" t="n">
+      <c r="G94" s="3" t="n">
         <v>95062</v>
       </c>
-      <c r="H94" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="H94" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3770,31 +3768,31 @@
         <f aca="false">A94+1</f>
         <v>94</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="2" t="n">
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="3" t="n">
         <v>15759</v>
       </c>
-      <c r="G95" s="2" t="n">
+      <c r="G95" s="3" t="n">
         <v>978314</v>
       </c>
-      <c r="H95" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J95" s="3" t="s">
+      <c r="H95" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3803,31 +3801,31 @@
         <f aca="false">A95+1</f>
         <v>95</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="2" t="n">
+      <c r="D96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="3" t="n">
         <v>35451</v>
       </c>
-      <c r="G96" s="2" t="n">
+      <c r="G96" s="3" t="n">
         <v>210023</v>
       </c>
-      <c r="H96" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J96" s="3" t="s">
+      <c r="H96" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3836,31 +3834,31 @@
         <f aca="false">A96+1</f>
         <v>96</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="2" t="n">
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="3" t="n">
         <v>34786</v>
       </c>
-      <c r="G97" s="2" t="n">
+      <c r="G97" s="3" t="n">
         <v>62833</v>
       </c>
-      <c r="H97" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97" s="3" t="s">
+      <c r="H97" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3869,31 +3867,31 @@
         <f aca="false">A97+1</f>
         <v>97</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="2" t="n">
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="3" t="n">
         <v>55315</v>
       </c>
-      <c r="G98" s="2" t="n">
+      <c r="G98" s="3" t="n">
         <v>215759</v>
       </c>
-      <c r="H98" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J98" s="3" t="s">
+      <c r="H98" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3902,31 +3900,31 @@
         <f aca="false">A98+1</f>
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="2" t="n">
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="G99" s="2" t="n">
+      <c r="G99" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="H99" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J99" s="3" t="s">
+      <c r="H99" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3935,31 +3933,31 @@
         <f aca="false">A99+1</f>
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="2" t="n">
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="3" t="n">
         <v>243</v>
       </c>
-      <c r="G100" s="2" t="n">
+      <c r="G100" s="3" t="n">
         <v>243</v>
       </c>
-      <c r="H100" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="H100" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3968,31 +3966,31 @@
         <f aca="false">A100+1</f>
         <v>100</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="2" t="n">
+      <c r="D101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="3" t="n">
         <v>531</v>
       </c>
-      <c r="G101" s="2" t="n">
+      <c r="G101" s="3" t="n">
         <v>348667</v>
       </c>
-      <c r="H101" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="H101" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4001,31 +3999,31 @@
         <f aca="false">A101+1</f>
         <v>101</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="2" t="n">
+      <c r="D102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G102" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H102" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J102" s="3" t="s">
+      <c r="G102" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4034,31 +4032,31 @@
         <f aca="false">A102+1</f>
         <v>102</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="G103" s="2" t="n">
+      <c r="D103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G103" s="3" t="n">
         <v>25538</v>
       </c>
-      <c r="H103" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J103" s="3" t="s">
+      <c r="H103" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4067,31 +4065,31 @@
         <f aca="false">A103+1</f>
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="2" t="n">
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="3" t="n">
         <v>1218</v>
       </c>
-      <c r="G104" s="2" t="n">
+      <c r="G104" s="3" t="n">
         <v>79464</v>
       </c>
-      <c r="H104" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J104" s="3" t="s">
+      <c r="H104" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4100,31 +4098,31 @@
         <f aca="false">A104+1</f>
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C105" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2" t="n">
+      <c r="C105" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G105" s="2" t="n">
+      <c r="G105" s="3" t="n">
         <v>1116</v>
       </c>
-      <c r="H105" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J105" s="3" t="s">
+      <c r="H105" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4133,31 +4131,31 @@
         <f aca="false">A105+1</f>
         <v>105</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="2" t="n">
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="3" t="n">
         <v>25364</v>
       </c>
-      <c r="G106" s="2" t="n">
+      <c r="G106" s="3" t="n">
         <v>352735</v>
       </c>
-      <c r="H106" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J106" s="3" t="s">
+      <c r="H106" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4166,31 +4164,31 @@
         <f aca="false">A106+1</f>
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2" t="n">
+      <c r="D107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G107" s="2" t="n">
+      <c r="G107" s="3" t="n">
         <v>144</v>
       </c>
-      <c r="H107" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J107" s="3" t="s">
+      <c r="H107" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4199,31 +4197,31 @@
         <f aca="false">A107+1</f>
         <v>107</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="2" t="n">
+      <c r="D108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="G108" s="2" t="n">
+      <c r="G108" s="3" t="n">
         <v>46440</v>
       </c>
-      <c r="H108" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J108" s="3" t="s">
+      <c r="H108" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4232,31 +4230,31 @@
         <f aca="false">A108+1</f>
         <v>108</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="2" t="n">
+      <c r="D109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="G109" s="2" t="n">
+      <c r="G109" s="3" t="n">
         <v>270891</v>
       </c>
-      <c r="H109" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J109" s="3" t="s">
+      <c r="H109" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4265,31 +4263,31 @@
         <f aca="false">A109+1</f>
         <v>109</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="2" t="n">
+      <c r="D110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G110" s="2" t="n">
+      <c r="G110" s="3" t="n">
         <v>27512</v>
       </c>
-      <c r="H110" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="3" t="s">
+      <c r="H110" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4298,31 +4296,31 @@
         <f aca="false">A110+1</f>
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="2" t="n">
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="3" t="n">
         <v>18554</v>
       </c>
-      <c r="G111" s="2" t="n">
+      <c r="G111" s="3" t="n">
         <v>1052475</v>
       </c>
-      <c r="H111" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J111" s="3" t="s">
+      <c r="H111" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4331,31 +4329,31 @@
         <f aca="false">A111+1</f>
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="2" t="n">
+      <c r="D112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="3" t="n">
         <v>14029</v>
       </c>
-      <c r="G112" s="2" t="n">
+      <c r="G112" s="3" t="n">
         <v>225199</v>
       </c>
-      <c r="H112" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J112" s="3" t="s">
+      <c r="H112" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4364,31 +4362,31 @@
         <f aca="false">A112+1</f>
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G113" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H113" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J113" s="3" t="s">
+      <c r="C113" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4397,16 +4395,16 @@
         <f aca="false">A113+1</f>
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="3" t="s">
+      <c r="D114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="4" t="n">
@@ -4415,13 +4413,13 @@
       <c r="G114" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="H114" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J114" s="3" t="s">
+      <c r="H114" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4430,16 +4428,16 @@
         <f aca="false">A114+1</f>
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="3" t="s">
+      <c r="D115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="4" t="n">
@@ -4448,13 +4446,13 @@
       <c r="G115" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="H115" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J115" s="3" t="s">
+      <c r="H115" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4463,31 +4461,31 @@
         <f aca="false">A115+1</f>
         <v>115</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="2" t="n">
+      <c r="D116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="3" t="n">
         <v>10260</v>
       </c>
-      <c r="G116" s="2" t="n">
+      <c r="G116" s="3" t="n">
         <v>21525</v>
       </c>
-      <c r="H116" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J116" s="3" t="s">
+      <c r="H116" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4496,31 +4494,31 @@
         <f aca="false">A116+1</f>
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="2" t="n">
+      <c r="D117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="3" t="n">
         <v>518</v>
       </c>
-      <c r="G117" s="2" t="n">
+      <c r="G117" s="3" t="n">
         <v>41099</v>
       </c>
-      <c r="H117" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J117" s="3" t="s">
+      <c r="H117" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4529,31 +4527,31 @@
         <f aca="false">A117+1</f>
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="2" t="n">
+      <c r="D118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="3" t="n">
         <v>46857</v>
       </c>
-      <c r="G118" s="2" t="n">
+      <c r="G118" s="3" t="n">
         <v>67446</v>
       </c>
-      <c r="H118" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J118" s="3" t="s">
+      <c r="H118" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4562,31 +4560,31 @@
         <f aca="false">A118+1</f>
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="2" t="n">
+      <c r="D119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="3" t="n">
         <v>1854</v>
       </c>
-      <c r="G119" s="2" t="n">
+      <c r="G119" s="3" t="n">
         <v>3285</v>
       </c>
-      <c r="H119" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J119" s="3" t="s">
+      <c r="H119" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4595,31 +4593,31 @@
         <f aca="false">A119+1</f>
         <v>119</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="2" t="n">
+      <c r="D120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="3" t="n">
         <v>2179</v>
       </c>
-      <c r="G120" s="2" t="n">
+      <c r="G120" s="3" t="n">
         <v>80772</v>
       </c>
-      <c r="H120" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J120" s="3" t="s">
+      <c r="H120" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4628,31 +4626,31 @@
         <f aca="false">A120+1</f>
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="2" t="n">
+      <c r="D121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="3" t="n">
         <v>14571</v>
       </c>
-      <c r="G121" s="2" t="n">
+      <c r="G121" s="3" t="n">
         <v>641828</v>
       </c>
-      <c r="H121" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J121" s="3" t="s">
+      <c r="H121" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4661,31 +4659,31 @@
         <f aca="false">A121+1</f>
         <v>121</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="2" t="n">
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="3" t="n">
         <v>911</v>
       </c>
-      <c r="G122" s="2" t="n">
+      <c r="G122" s="3" t="n">
         <v>968795</v>
       </c>
-      <c r="H122" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J122" s="3" t="s">
+      <c r="H122" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4694,31 +4692,31 @@
         <f aca="false">A122+1</f>
         <v>122</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="2" t="n">
+      <c r="D123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="3" t="n">
         <v>48498</v>
       </c>
-      <c r="G123" s="2" t="n">
+      <c r="G123" s="3" t="n">
         <v>450868</v>
       </c>
-      <c r="H123" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J123" s="3" t="s">
+      <c r="H123" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4727,31 +4725,31 @@
         <f aca="false">A123+1</f>
         <v>123</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="2" t="n">
+      <c r="D124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="3" t="n">
         <v>2444</v>
       </c>
-      <c r="G124" s="2" t="n">
+      <c r="G124" s="3" t="n">
         <v>107292</v>
       </c>
-      <c r="H124" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J124" s="3" t="s">
+      <c r="H124" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4760,31 +4758,31 @@
         <f aca="false">A124+1</f>
         <v>124</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="2" t="n">
+      <c r="D125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="3" t="n">
         <v>7252</v>
       </c>
-      <c r="G125" s="2" t="n">
+      <c r="G125" s="3" t="n">
         <v>100506</v>
       </c>
-      <c r="H125" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="H125" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4793,31 +4791,31 @@
         <f aca="false">A125+1</f>
         <v>125</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="2" t="n">
+      <c r="D126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="3" t="n">
         <v>2046</v>
       </c>
-      <c r="G126" s="2" t="n">
+      <c r="G126" s="3" t="n">
         <v>29355</v>
       </c>
-      <c r="H126" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J126" s="3" t="s">
+      <c r="H126" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4826,31 +4824,31 @@
         <f aca="false">A126+1</f>
         <v>126</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="2" t="n">
+      <c r="D127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G127" s="2" t="n">
+      <c r="G127" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="H127" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J127" s="3" t="s">
+      <c r="H127" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J127" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4859,31 +4857,31 @@
         <f aca="false">A127+1</f>
         <v>127</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="2" t="n">
+      <c r="D128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="3" t="n">
         <v>665</v>
       </c>
-      <c r="G128" s="2" t="n">
+      <c r="G128" s="3" t="n">
         <v>180204</v>
       </c>
-      <c r="H128" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J128" s="3" t="s">
+      <c r="H128" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4892,31 +4890,31 @@
         <f aca="false">A128+1</f>
         <v>128</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="3" t="s">
+      <c r="D129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F129" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="G129" s="2" t="n">
+      <c r="F129" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G129" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="H129" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J129" s="3" t="s">
+      <c r="H129" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4925,31 +4923,31 @@
         <f aca="false">A129+1</f>
         <v>129</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="3" t="s">
+      <c r="D130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F130" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="G130" s="2" t="n">
+      <c r="F130" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="H130" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J130" s="3" t="s">
+      <c r="H130" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4958,31 +4956,31 @@
         <f aca="false">A130+1</f>
         <v>130</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="3" t="s">
+      <c r="D131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F131" s="2" t="n">
+      <c r="F131" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G131" s="2" t="n">
+      <c r="G131" s="3" t="n">
         <v>104</v>
       </c>
-      <c r="H131" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J131" s="3" t="s">
+      <c r="H131" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4991,31 +4989,31 @@
         <f aca="false">A131+1</f>
         <v>131</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="3" t="s">
+      <c r="D132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F132" s="2" t="n">
+      <c r="F132" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="G132" s="2" t="n">
+      <c r="G132" s="3" t="n">
         <v>104</v>
       </c>
-      <c r="H132" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J132" s="3" t="s">
+      <c r="H132" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J132" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5024,31 +5022,31 @@
         <f aca="false">A132+1</f>
         <v>132</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="3" t="s">
+      <c r="D133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F133" s="2" t="n">
+      <c r="F133" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G133" s="2" t="n">
+      <c r="G133" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="H133" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J133" s="3" t="s">
+      <c r="H133" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5057,31 +5055,31 @@
         <f aca="false">A133+1</f>
         <v>133</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="3" t="s">
+      <c r="D134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F134" s="0" t="n">
+      <c r="F134" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="G134" s="0" t="n">
+      <c r="G134" s="1" t="n">
         <v>775</v>
       </c>
-      <c r="H134" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J134" s="3" t="s">
+      <c r="H134" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5090,31 +5088,31 @@
         <f aca="false">A134+1</f>
         <v>134</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="2" t="n">
+      <c r="C135" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="3" t="s">
+      <c r="D135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F135" s="2" t="n">
+      <c r="F135" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G135" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H135" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135" s="3" t="s">
+      <c r="G135" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="H135" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5123,31 +5121,31 @@
         <f aca="false">A135+1</f>
         <v>135</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C136" s="2" t="n">
+      <c r="C136" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="3" t="s">
+      <c r="D136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F136" s="2" t="n">
+      <c r="F136" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G136" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H136" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J136" s="3" t="s">
+      <c r="G136" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H136" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5156,31 +5154,31 @@
         <f aca="false">A136+1</f>
         <v>136</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C137" s="2" t="n">
+      <c r="C137" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="3" t="s">
+      <c r="D137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F137" s="2" t="n">
+      <c r="F137" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="G137" s="2" t="n">
+      <c r="G137" s="3" t="n">
         <v>464</v>
       </c>
-      <c r="H137" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J137" s="3" t="s">
+      <c r="H137" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5189,31 +5187,31 @@
         <f aca="false">A137+1</f>
         <v>137</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C138" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G138" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H138" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J138" s="3" t="s">
+      <c r="C138" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H138" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5222,31 +5220,31 @@
         <f aca="false">A138+1</f>
         <v>138</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G139" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H139" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J139" s="3" t="s">
+      <c r="C139" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H139" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5255,31 +5253,31 @@
         <f aca="false">A139+1</f>
         <v>139</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="2" t="n">
+      <c r="C140" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="3" t="s">
+      <c r="D140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F140" s="2" t="n">
+      <c r="F140" s="3" t="n">
         <v>1413</v>
       </c>
-      <c r="G140" s="2" t="n">
+      <c r="G140" s="3" t="n">
         <v>10946</v>
       </c>
-      <c r="H140" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J140" s="3" t="s">
+      <c r="H140" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5288,31 +5286,31 @@
         <f aca="false">A140+1</f>
         <v>140</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C141" s="2" t="n">
+      <c r="C141" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="2" t="n">
+      <c r="D141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G141" s="2" t="n">
+      <c r="G141" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="H141" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J141" s="3" t="s">
+      <c r="H141" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5321,31 +5319,31 @@
         <f aca="false">A141+1</f>
         <v>141</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C142" s="2" t="n">
+      <c r="C142" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="2" t="n">
+      <c r="D142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="3" t="n">
         <v>3699</v>
       </c>
-      <c r="G142" s="2" t="n">
+      <c r="G142" s="3" t="n">
         <v>14606</v>
       </c>
-      <c r="H142" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J142" s="3" t="s">
+      <c r="H142" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5354,31 +5352,31 @@
         <f aca="false">A142+1</f>
         <v>142</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C143" s="2" t="n">
+      <c r="C143" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="2" t="n">
+      <c r="D143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="3" t="n">
         <v>43973</v>
       </c>
-      <c r="G143" s="2" t="n">
+      <c r="G143" s="3" t="n">
         <v>196626</v>
       </c>
-      <c r="H143" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J143" s="3" t="s">
+      <c r="H143" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5387,31 +5385,31 @@
         <f aca="false">A143+1</f>
         <v>143</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C144" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G144" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H144" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J144" s="3" t="s">
+      <c r="C144" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H144" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5420,31 +5418,31 @@
         <f aca="false">A144+1</f>
         <v>144</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C145" s="2" t="n">
+      <c r="C145" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="D145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F145" s="2" t="n">
+      <c r="F145" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G145" s="2" t="n">
+      <c r="G145" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="H145" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J145" s="3" t="s">
+      <c r="H145" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5453,31 +5451,31 @@
         <f aca="false">A145+1</f>
         <v>145</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C146" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="2" t="n">
+      <c r="C146" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="G146" s="2" t="n">
+      <c r="G146" s="3" t="n">
         <v>1884</v>
       </c>
-      <c r="H146" s="3" t="n">
+      <c r="H146" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J146" s="3" t="s">
+      <c r="I146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5486,31 +5484,31 @@
         <f aca="false">A146+1</f>
         <v>146</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C147" s="2" t="n">
+      <c r="C147" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="2" t="n">
+      <c r="D147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="3" t="n">
         <v>2252</v>
       </c>
-      <c r="G147" s="2" t="n">
+      <c r="G147" s="3" t="n">
         <v>28579</v>
       </c>
-      <c r="H147" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J147" s="3" t="s">
+      <c r="H147" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5519,31 +5517,31 @@
         <f aca="false">A147+1</f>
         <v>147</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C148" s="2" t="n">
+      <c r="C148" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="2" t="n">
+      <c r="D148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="3" t="n">
         <v>2252</v>
       </c>
-      <c r="G148" s="2" t="n">
+      <c r="G148" s="3" t="n">
         <v>28579</v>
       </c>
-      <c r="H148" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J148" s="3" t="s">
+      <c r="H148" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5552,31 +5550,31 @@
         <f aca="false">A148+1</f>
         <v>148</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C149" s="2" t="n">
+      <c r="C149" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="2" t="n">
+      <c r="D149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="3" t="n">
         <v>51391</v>
       </c>
-      <c r="G149" s="2" t="n">
+      <c r="G149" s="3" t="n">
         <v>1447221</v>
       </c>
-      <c r="H149" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J149" s="3" t="s">
+      <c r="H149" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J149" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5585,31 +5583,31 @@
         <f aca="false">A149+1</f>
         <v>149</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C150" s="2" t="n">
+      <c r="C150" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="2" t="n">
+      <c r="D150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="3" t="n">
         <v>2146</v>
       </c>
-      <c r="G150" s="2" t="n">
+      <c r="G150" s="3" t="n">
         <v>31733</v>
       </c>
-      <c r="H150" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J150" s="3" t="s">
+      <c r="H150" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J150" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5618,31 +5616,31 @@
         <f aca="false">A150+1</f>
         <v>150</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C151" s="2" t="n">
+      <c r="C151" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="2" t="n">
+      <c r="D151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="3" t="n">
         <v>1217</v>
       </c>
-      <c r="G151" s="2" t="n">
+      <c r="G151" s="3" t="n">
         <v>13693</v>
       </c>
-      <c r="H151" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J151" s="3" t="s">
+      <c r="H151" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5651,31 +5649,31 @@
         <f aca="false">A151+1</f>
         <v>151</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C152" s="2" t="n">
+      <c r="C152" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="2" t="n">
+      <c r="D152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="3" t="n">
         <v>841</v>
       </c>
-      <c r="G152" s="2" t="n">
+      <c r="G152" s="3" t="n">
         <v>8721</v>
       </c>
-      <c r="H152" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J152" s="3" t="s">
+      <c r="H152" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J152" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5684,31 +5682,31 @@
         <f aca="false">A152+1</f>
         <v>152</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C153" s="2" t="n">
+      <c r="C153" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="2" t="n">
+      <c r="D153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="3" t="n">
         <v>84836</v>
       </c>
-      <c r="G153" s="2" t="n">
+      <c r="G153" s="3" t="n">
         <v>2537171</v>
       </c>
-      <c r="H153" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J153" s="3" t="s">
+      <c r="H153" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5717,31 +5715,31 @@
         <f aca="false">A153+1</f>
         <v>153</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C154" s="2" t="n">
+      <c r="C154" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="2" t="n">
+      <c r="D154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="3" t="n">
         <v>1495</v>
       </c>
-      <c r="G154" s="2" t="n">
+      <c r="G154" s="3" t="n">
         <v>41074</v>
       </c>
-      <c r="H154" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J154" s="3" t="s">
+      <c r="H154" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5750,31 +5748,31 @@
         <f aca="false">A154+1</f>
         <v>154</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C155" s="2" t="n">
+      <c r="C155" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="2" t="n">
+      <c r="D155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="3" t="n">
         <v>734</v>
       </c>
-      <c r="G155" s="2" t="n">
+      <c r="G155" s="3" t="n">
         <v>8686</v>
       </c>
-      <c r="H155" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J155" s="3" t="s">
+      <c r="H155" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J155" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5783,31 +5781,31 @@
         <f aca="false">A155+1</f>
         <v>155</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C156" s="2" t="n">
+      <c r="C156" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="2" t="n">
+      <c r="D156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="3" t="n">
         <v>8898</v>
       </c>
-      <c r="G156" s="2" t="n">
+      <c r="G156" s="3" t="n">
         <v>114584</v>
       </c>
-      <c r="H156" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J156" s="3" t="s">
+      <c r="H156" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J156" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5816,31 +5814,31 @@
         <f aca="false">A156+1</f>
         <v>156</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C157" s="2" t="n">
+      <c r="C157" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="n">
+      <c r="D157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="3" t="n">
         <v>10601</v>
       </c>
-      <c r="G157" s="2" t="n">
+      <c r="G157" s="3" t="n">
         <v>40499</v>
       </c>
-      <c r="H157" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J157" s="3" t="s">
+      <c r="H157" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5849,31 +5847,31 @@
         <f aca="false">A157+1</f>
         <v>157</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C158" s="2" t="n">
+      <c r="C158" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="2" t="n">
+      <c r="D158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="3" t="n">
         <v>734</v>
       </c>
-      <c r="G158" s="2" t="n">
+      <c r="G158" s="3" t="n">
         <v>8686</v>
       </c>
-      <c r="H158" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J158" s="3" t="s">
+      <c r="H158" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J158" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5882,31 +5880,31 @@
         <f aca="false">A158+1</f>
         <v>158</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C159" s="2" t="n">
+      <c r="C159" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="2" t="n">
+      <c r="D159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="3" t="n">
         <v>5914</v>
       </c>
-      <c r="G159" s="2" t="n">
+      <c r="G159" s="3" t="n">
         <v>65950</v>
       </c>
-      <c r="H159" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J159" s="3" t="s">
+      <c r="H159" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5915,31 +5913,31 @@
         <f aca="false">A159+1</f>
         <v>159</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C160" s="2" t="n">
+      <c r="C160" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160" s="2" t="n">
+      <c r="D160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="3" t="n">
         <v>3627</v>
       </c>
-      <c r="G160" s="2" t="n">
+      <c r="G160" s="3" t="n">
         <v>14334</v>
       </c>
-      <c r="H160" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J160" s="3" t="s">
+      <c r="H160" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J160" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5948,31 +5946,31 @@
         <f aca="false">A160+1</f>
         <v>160</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C161" s="2" t="n">
+      <c r="C161" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="2" t="n">
+      <c r="D161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="3" t="n">
         <v>734</v>
       </c>
-      <c r="G161" s="2" t="n">
+      <c r="G161" s="3" t="n">
         <v>8686</v>
       </c>
-      <c r="H161" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J161" s="3" t="s">
+      <c r="H161" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J161" s="1" t="s">
         <v>11</v>
       </c>
     </row>
